--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2904.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2904.xlsx
@@ -351,13 +351,13 @@
         <v>1.214602848085153</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.199438732651537</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2904.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2904.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.214602848085153</v>
+        <v>1.464105367660522</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1.697013854980469</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.156684637069702</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3.470783472061157</v>
       </c>
       <c r="E1">
-        <v>1.199438732651537</v>
+        <v>4.040699005126953</v>
       </c>
     </row>
   </sheetData>
